--- a/biology/Médecine/Myélogramme/Myélogramme.xlsx
+++ b/biology/Médecine/Myélogramme/Myélogramme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>My%C3%A9logramme</t>
+          <t>Myélogramme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un myélogramme est un examen (examen hématologique) qui permet l'étude de la moelle osseuse après une ponction suivie d'une aspiration. On effectue ensuite un frottis de moelle osseuse à partir du liquide aspiré. Ce nom correspond aussi bien à l'acte de prélèvement (ponction-aspiration) qu'à l'examen biologique (lecture du frottis après coloration).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>My%C3%A9logramme</t>
+          <t>Myélogramme</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La moelle osseuse est le site de formation des précurseurs des cellules du sang. Les globules rouges, globules blancs et plaquettes se forment à partir de différentes lignées cellulaires (respectivement érythroblastique, granuleuse ou myéloïde, mégacaryocytaire) produites dans la moelle osseuse.
 Le myélogramme est indiqué dans différentes situations :
-en cas d'anomalie quantitative ou qualitative des cellules sanguines visibles sur l'hémogramme (ou numération formule sanguine), en particulier s'il existe une atteinte de plusieurs lignées (faisant suspecter un défaut de production par la moelle) ou si on a vu sur le frottis sanguin des cellules anormales (suspicion d'hémopathie maligne)[1] ;
+en cas d'anomalie quantitative ou qualitative des cellules sanguines visibles sur l'hémogramme (ou numération formule sanguine), en particulier s'il existe une atteinte de plusieurs lignées (faisant suspecter un défaut de production par la moelle) ou si on a vu sur le frottis sanguin des cellules anormales (suspicion d'hémopathie maligne) ;
 en cas de suspicion d'hémopathie maligne (leucémie, lymphome, myélome) même si l'hémogramme est normal ;
 Pour rechercher des métastases médullaires d'une tumeur solide (une biopsie ostéomédullaire peut aussi être nécessaire) ;
 Plus rarement :
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>My%C3%A9logramme</t>
+          <t>Myélogramme</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Réalisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La ponction de la moelle osseuse se déroule sous anesthésie locale le plus souvent. Elle se fait au niveau du sternum ou de la crête iliaque (os de la hanche). Chez l'enfant, le prélèvement s’effectue uniquement au niveau de la hanche et peut aussi se faire au niveau de la crête tibiale chez le nouveau-né ou le nourrisson. Plus rarement (dans le cadre d'un bilan des atteintes médullaires d'une tumeur solide par exemple) d'autres sites peuvent être ponctionnés, comme les apophyses postérieures des vertèbres. Si la ponction est réalisée au niveau du sternum, le patient est allongé sur le dos. Si elle est réalisée au niveau de l'os iliaque, le patient est allongé sur le côté, allongé à plat ventre ou assis sur le lit. La prévention de la douleur peut utiliser plusieurs approches pouvant être combinées :
 injection locale d'un agent anesthésiant (xylocaïne)
@@ -560,9 +576,44 @@
 inhalation (pendant le geste) de protoxyde d'azote (MEOPA).
 Mais la rapidité du geste réduit beaucoup la sensation désagréable (en particulier au moment de l'aspiration de la moelle osseuse) et ne doit pas faire craindre ce geste. Une explication détaillée du geste au patient avant le prélèvement doit permettre de rassurer ce dernier.
 Le médecin va ensuite ponctionner l'os en utilisant un trocart muni d'un mandrin, spécifiquement conçu pour la ponction de moelle. La longueur de l'aiguille dépend du site ponctionné. Une fois le trocart en place, le mandrin est retiré, une seringue est fixée sur le trocart et un peu de moelle est aspirée. La douleur la plus franche est ressentie lors de cette aspiration. Si on souhaite faire uniquement des frottis médullaires on ne prélève que très peu de moelle (&lt;1 ml) pour ne pas diluer celle-ci. Parfois on reprélève un peu de moelle pour réaliser d'autres examens (immunophénotypage, analyses génétiques et moléculaires, congélation de cellules...)
-Le prélèvement est ensuite étalé sur des lames de verre. Le préleveur dépose une goutte de moelle sur une lame et réalise ensuite un étalement : c'est ce qu'on appelle un frottis. En France, l'analyse du frottis est faite par un biologiste médical - médecin ou pharmacien - dans un laboratoire d'analyses de biologie médicale. L'examinateur regarde les lames au microscope optique après coloration[1].
-Contre-indications à la ponction sternale
-Les trois principales contre-indications à la ponction sternale sont :
+Le prélèvement est ensuite étalé sur des lames de verre. Le préleveur dépose une goutte de moelle sur une lame et réalise ensuite un étalement : c'est ce qu'on appelle un frottis. En France, l'analyse du frottis est faite par un biologiste médical - médecin ou pharmacien - dans un laboratoire d'analyses de biologie médicale. L'examinateur regarde les lames au microscope optique après coloration.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Myélogramme</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/My%C3%A9logramme</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Réalisation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Contre-indications à la ponction sternale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les trois principales contre-indications à la ponction sternale sont :
 un os non calcifié, chez les enfants.
 des antécédents de chirurgie thoracique ayant entraînés une sternotomie.
 des antécédents d'irradiation thoracique (en effet, la moelle n'est souvent plus aspirable ou trop pauvre)
@@ -572,31 +623,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>My%C3%A9logramme</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Myélogramme</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/My%C3%A9logramme</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Résultats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le myélogramme permet d'analyser la richesse de la moelle et la représentation normale ou non des différentes lignées cellulaires. Il analyse aussi la présence ou l’absence de cellules anormales.
 La richesse globale de l'étalement est évaluée par le nombre de cellules présentes sur un champ. La moelle osseuse est dite très riche, riche, normale, pauvre, ou désertique. La pauvreté du frottis peut être due à une aspiration difficile ou une dilution excessive par du sang. Il est à noter que seule une biopsie ostéomédullaire peut affirmer la pauvreté réelle de la moelle osseuse.
